--- a/SVSA/Gerenciamento de Projeto/SVSA (G1) - Checklist Verificacao de Projeto.xlsx
+++ b/SVSA/Gerenciamento de Projeto/SVSA (G1) - Checklist Verificacao de Projeto.xlsx
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="140">
   <si>
     <t xml:space="preserve">IAP - Indicador de Aderência ao Processo (70% a 100%)</t>
   </si>
@@ -1519,17 +1519,20 @@
                 <c:pt idx="2">
                   <c:v>0.9</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="14398357"/>
-        <c:axId val="15656401"/>
+        <c:axId val="64151364"/>
+        <c:axId val="5040359"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14398357"/>
+        <c:axId val="64151364"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,7 +1566,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15656401"/>
+        <c:crossAx val="5040359"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1571,7 +1574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15656401"/>
+        <c:axId val="5040359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1618,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14398357"/>
+        <c:crossAx val="64151364"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2250,11 +2253,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="4741578"/>
-        <c:axId val="68446115"/>
+        <c:axId val="20374946"/>
+        <c:axId val="13424335"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="4741578"/>
+        <c:axId val="20374946"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,7 +2291,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68446115"/>
+        <c:crossAx val="13424335"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2296,7 +2299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68446115"/>
+        <c:axId val="13424335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2340,7 +2343,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4741578"/>
+        <c:crossAx val="20374946"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2993,11 +2996,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="3268357"/>
-        <c:axId val="40802724"/>
+        <c:axId val="47890111"/>
+        <c:axId val="50213147"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="3268357"/>
+        <c:axId val="47890111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3031,7 +3034,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40802724"/>
+        <c:crossAx val="50213147"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3039,7 +3042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40802724"/>
+        <c:axId val="50213147"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3070,7 +3073,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3268357"/>
+        <c:crossAx val="47890111"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3747,11 +3750,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="68126196"/>
-        <c:axId val="27072286"/>
+        <c:axId val="41607917"/>
+        <c:axId val="3828576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68126196"/>
+        <c:axId val="41607917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3785,7 +3788,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27072286"/>
+        <c:crossAx val="3828576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3793,7 +3796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27072286"/>
+        <c:axId val="3828576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3824,7 +3827,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68126196"/>
+        <c:crossAx val="41607917"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4030,6 +4033,45 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4141,6 +4183,45 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4252,6 +4333,45 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4363,17 +4483,56 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="77488046"/>
-        <c:axId val="71755274"/>
+        <c:axId val="31087778"/>
+        <c:axId val="84425384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77488046"/>
+        <c:axId val="31087778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4407,7 +4566,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71755274"/>
+        <c:crossAx val="84425384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4415,7 +4574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71755274"/>
+        <c:axId val="84425384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4446,7 +4605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77488046"/>
+        <c:crossAx val="31087778"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4511,9 +4670,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2507040</xdr:colOff>
+      <xdr:colOff>2506680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4522,7 +4681,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9360" y="1420200"/>
-        <a:ext cx="4209480" cy="2152080"/>
+        <a:ext cx="4209120" cy="2151720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4546,9 +4705,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>448200</xdr:colOff>
+      <xdr:colOff>447840</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4557,7 +4716,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="6781680" cy="3971160"/>
+        <a:ext cx="6781320" cy="3970800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4576,9 +4735,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>251280</xdr:colOff>
+      <xdr:colOff>250920</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4587,7 +4746,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7176240" y="0"/>
-        <a:ext cx="6657840" cy="3971160"/>
+        <a:ext cx="6657480" cy="3970800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4606,9 +4765,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>467280</xdr:colOff>
+      <xdr:colOff>466920</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4617,7 +4776,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="3627000"/>
-        <a:ext cx="6800760" cy="3933000"/>
+        <a:ext cx="6800400" cy="3932640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4636,9 +4795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>251280</xdr:colOff>
+      <xdr:colOff>250920</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4647,7 +4806,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7185600" y="3636360"/>
-        <a:ext cx="6648480" cy="3923640"/>
+        <a:ext cx="6648120" cy="3923280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4829,9 +4988,9 @@
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="e">
+      <c r="B6" s="5" t="n">
         <f aca="false">'Ver-Transição1'!$F$2</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8424,21 +8583,21 @@
       <c r="M25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="9" t="e">
+      <c r="N25" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$G$6/SUM('Ver-Transição1'!$G$6:$J$6))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$H$6/SUM('Ver-Transição1'!$G$6:$J$6))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$I$6/SUM('Ver-Transição1'!$G$6:$J$6))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$J$6/SUM('Ver-Transição1'!$G$6:$J$6))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8464,21 +8623,21 @@
       <c r="M26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="9" t="e">
+      <c r="N26" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$G$8/SUM('Ver-Transição1'!$G$8:$J$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="9" t="e">
+        <v>1</v>
+      </c>
+      <c r="O26" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$H$8/SUM('Ver-Transição1'!$G$8:$J$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$I$8/SUM('Ver-Transição1'!$G$8:$J$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$J$8/SUM('Ver-Transição1'!$G$8:$J$8))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8504,21 +8663,21 @@
       <c r="M27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N27" s="9" t="e">
+      <c r="N27" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$G$10/SUM('Ver-Transição1'!$G$10:$J$10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="9" t="e">
+        <v>1</v>
+      </c>
+      <c r="O27" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$H$10/SUM('Ver-Transição1'!$G$10:$J$10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P27" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="P27" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$I$10/SUM('Ver-Transição1'!$G$10:$J$10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$J$10/SUM('Ver-Transição1'!$G$10:$J$10))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8544,21 +8703,21 @@
       <c r="M28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N28" s="9" t="e">
+      <c r="N28" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$G$14/SUM('Ver-Transição1'!$G$14:$J$14))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$H$14/SUM('Ver-Transição1'!$G$14:$J$14))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$I$14/SUM('Ver-Transição1'!$G$14:$J$14))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$J$14/SUM('Ver-Transição1'!$G$14:$J$14))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8584,21 +8743,21 @@
       <c r="M29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="9" t="e">
+      <c r="N29" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$G$16/SUM('Ver-Transição1'!$G$16:$J$16))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$H$16/SUM('Ver-Transição1'!$G$16:$J$16))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P29" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="P29" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$I$16/SUM('Ver-Transição1'!$G$16:$J$16))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$J$16/SUM('Ver-Transição1'!$G$16:$J$16))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8624,21 +8783,21 @@
       <c r="M30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N30" s="9" t="e">
+      <c r="N30" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$G$18/SUM('Ver-Transição1'!$G$18:$J$18))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O30" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$H$18/SUM('Ver-Transição1'!$G$18:$J$18))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P30" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="P30" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$I$18/SUM('Ver-Transição1'!$G$18:$J$18))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q30" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$J$18/SUM('Ver-Transição1'!$G$18:$J$18))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8664,21 +8823,21 @@
       <c r="M31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N31" s="9" t="e">
+      <c r="N31" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$G$20/SUM('Ver-Transição1'!$G$20:$J$20))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" s="9" t="e">
+        <v>1</v>
+      </c>
+      <c r="O31" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$H$20/SUM('Ver-Transição1'!$G$20:$J$20))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P31" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="P31" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$I$20/SUM('Ver-Transição1'!$G$20:$J$20))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$J$20/SUM('Ver-Transição1'!$G$20:$J$20))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8704,21 +8863,21 @@
       <c r="M32" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="9" t="e">
+      <c r="N32" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$G$26/SUM('Ver-Transição1'!$G$26:$J$26))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O32" s="9" t="e">
+        <v>1</v>
+      </c>
+      <c r="O32" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$H$26/SUM('Ver-Transição1'!$G$26:$J$26))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P32" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$I$26/SUM('Ver-Transição1'!$G$26:$J$26))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q32" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$J$26/SUM('Ver-Transição1'!$G$26:$J$26))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8744,21 +8903,21 @@
       <c r="M33" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N33" s="9" t="e">
+      <c r="N33" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$G$30/SUM('Ver-Transição1'!$G$30:$J$30))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O33" s="9" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="O33" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$H$30/SUM('Ver-Transição1'!$G$30:$J$30))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P33" s="9" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="P33" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$I$30/SUM('Ver-Transição1'!$G$30:$J$30))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q33" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$J$30/SUM('Ver-Transição1'!$G$30:$J$30))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8784,84 +8943,84 @@
       <c r="M34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N34" s="8" t="e">
+      <c r="N34" s="8" t="n">
         <f aca="false">('Ver-Transição1'!$G$33/SUM('Ver-Transição1'!$G$33:$J$33))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O34" s="9" t="e">
+        <v>1</v>
+      </c>
+      <c r="O34" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$H$33/SUM('Ver-Transição1'!$G$33:$J$33))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P34" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$I$33/SUM('Ver-Transição1'!$G$33:$J$33))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q34" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$J$33/SUM('Ver-Transição1'!$G$33:$J$33))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M35" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N35" s="9" t="e">
+      <c r="N35" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$G$36/SUM('Ver-Transição1'!$G$36:$J$36))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="9" t="e">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="O35" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$H$36/SUM('Ver-Transição1'!$G$36:$J$36))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P35" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$I$36/SUM('Ver-Transição1'!$G$36:$J$36))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q35" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$J$36/SUM('Ver-Transição1'!$G$36:$J$36))</f>
-        <v>#DIV/0!</v>
+        <v>0.142857142857143</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N36" s="9" t="e">
+      <c r="N36" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$G$44/SUM('Ver-Transição1'!$G$44:$J$44))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O36" s="9" t="e">
+        <v>1</v>
+      </c>
+      <c r="O36" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$H$44/SUM('Ver-Transição1'!$G$44:$J$44))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P36" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$I$44/SUM('Ver-Transição1'!$G$44:$J$44))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q36" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$J$44/SUM('Ver-Transição1'!$G$44:$J$44))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N37" s="9" t="e">
+      <c r="N37" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$G$48/SUM('Ver-Transição1'!$G$48:$J$48))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O37" s="9" t="e">
+        <v>1</v>
+      </c>
+      <c r="O37" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$H$48/SUM('Ver-Transição1'!$G$48:$J$48))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P37" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$I$48/SUM('Ver-Transição1'!$G$48:$J$48))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q37" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9" t="n">
         <f aca="false">('Ver-Transição1'!$J$48/SUM('Ver-Transição1'!$G$48:$J$48))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -14884,7 +15043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27"/>
       <c r="B11" s="31" t="n">
         <v>4</v>
@@ -19457,8 +19616,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24216,7 +24375,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24251,9 +24410,9 @@
         <v>31</v>
       </c>
       <c r="E2" s="13"/>
-      <c r="F2" s="14" t="e">
+      <c r="F2" s="14" t="n">
         <f aca="false">COUNTIF(D5:D50,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24308,7 +24467,9 @@
       <c r="C6" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="7" t="n">
@@ -24325,7 +24486,7 @@
       </c>
       <c r="J6" s="7" t="n">
         <f aca="false">COUNTIF(D6,"NA")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24346,12 +24507,14 @@
       <c r="C8" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="7" t="n">
         <f aca="false">COUNTIF(D8,"Sim")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7" t="n">
         <f aca="false">COUNTIF(D8,"Parcialmente")</f>
@@ -24400,12 +24563,14 @@
       <c r="C10" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="7" t="n">
         <f aca="false">COUNTIF(D10:D12,"Sim")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="7" t="n">
         <f aca="false">COUNTIF(D10:D12,"Parcialmente")</f>
@@ -24428,7 +24593,9 @@
       <c r="C11" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
     </row>
@@ -24440,7 +24607,9 @@
       <c r="C12" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
     </row>
@@ -24462,7 +24631,9 @@
       <c r="C14" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="7" t="n">
@@ -24479,7 +24650,7 @@
       </c>
       <c r="J14" s="7" t="n">
         <f aca="false">COUNTIF(D14,"NA")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24500,7 +24671,9 @@
       <c r="C16" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="7" t="n">
@@ -24517,7 +24690,7 @@
       </c>
       <c r="J16" s="7" t="n">
         <f aca="false">COUNTIF(D16,"NA")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24540,7 +24713,9 @@
       <c r="C18" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="7" t="n">
@@ -24557,7 +24732,7 @@
       </c>
       <c r="J18" s="7" t="n">
         <f aca="false">COUNTIF(D18,"NA")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24580,12 +24755,14 @@
       <c r="C20" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="7" t="n">
         <f aca="false">COUNTIF(D20:D24,"Sim")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" s="7" t="n">
         <f aca="false">COUNTIF(D20:D24,"Parcialmente")</f>
@@ -24608,7 +24785,9 @@
       <c r="C21" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
     </row>
@@ -24620,7 +24799,9 @@
       <c r="C22" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
     </row>
@@ -24632,7 +24813,9 @@
       <c r="C23" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
     </row>
@@ -24644,7 +24827,9 @@
       <c r="C24" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
     </row>
@@ -24668,12 +24853,14 @@
       <c r="C26" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="26"/>
+      <c r="D26" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="7" t="n">
         <f aca="false">COUNTIF(D26:D28,"Sim")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" s="7" t="n">
         <f aca="false">COUNTIF(D26:D28,"Parcialmente")</f>
@@ -24696,7 +24883,9 @@
       <c r="C27" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="26"/>
+      <c r="D27" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
     </row>
@@ -24708,7 +24897,9 @@
       <c r="C28" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
     </row>
@@ -24752,16 +24943,18 @@
       <c r="C30" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="7" t="n">
         <f aca="false">COUNTIF(D30:D31,"Sim")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="7" t="n">
         <f aca="false">COUNTIF(D30:D31,"Parcialmente")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7" t="n">
         <f aca="false">COUNTIF(D30:D31,"Não")</f>
@@ -24796,7 +24989,9 @@
       <c r="C31" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="26" t="s">
+        <v>51</v>
+      </c>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="30"/>
@@ -24838,12 +25033,14 @@
       <c r="C33" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
       <c r="G33" s="7" t="n">
         <f aca="false">COUNTIF(D33:D34,"Sim")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" s="7" t="n">
         <f aca="false">COUNTIF(D33:D34,"Parcialmente")</f>
@@ -24866,7 +25063,9 @@
       <c r="C34" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="26"/>
+      <c r="D34" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
     </row>
@@ -24890,12 +25089,14 @@
       <c r="C36" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="26"/>
+      <c r="D36" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
       <c r="G36" s="7" t="n">
         <f aca="false">COUNTIF(D36:D42,"Sim")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H36" s="7" t="n">
         <f aca="false">COUNTIF(D36:D42,"Parcialmente")</f>
@@ -24907,7 +25108,7 @@
       </c>
       <c r="J36" s="7" t="n">
         <f aca="false">COUNTIF(D36:D42,"NA")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24918,7 +25119,9 @@
       <c r="C37" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="26"/>
+      <c r="D37" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
     </row>
@@ -24930,7 +25133,9 @@
       <c r="C38" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
     </row>
@@ -24942,7 +25147,9 @@
       <c r="C39" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
     </row>
@@ -24954,7 +25161,9 @@
       <c r="C40" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="26"/>
+      <c r="D40" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
     </row>
@@ -24966,7 +25175,9 @@
       <c r="C41" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="26"/>
+      <c r="D41" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
     </row>
@@ -24978,7 +25189,9 @@
       <c r="C42" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="26"/>
+      <c r="D42" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
     </row>
@@ -25002,12 +25215,14 @@
       <c r="C44" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="26"/>
+      <c r="D44" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
       <c r="G44" s="7" t="n">
         <f aca="false">COUNTIF(D44:D46,"Sim")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H44" s="7" t="n">
         <f aca="false">COUNTIF(D44:D46,"Parcialmente")</f>
@@ -25030,7 +25245,9 @@
       <c r="C45" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="26"/>
+      <c r="D45" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
     </row>
@@ -25042,7 +25259,9 @@
       <c r="C46" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="26"/>
+      <c r="D46" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
     </row>
@@ -25064,12 +25283,14 @@
       <c r="C48" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="26"/>
+      <c r="D48" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="7" t="n">
         <f aca="false">COUNTIF(D48:D50,"Sim")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H48" s="7" t="n">
         <f aca="false">COUNTIF(D48:D50,"Parcialmente")</f>
@@ -25092,7 +25313,9 @@
       <c r="C49" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="26"/>
+      <c r="D49" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
     </row>
@@ -25104,7 +25327,9 @@
       <c r="C50" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="26"/>
+      <c r="D50" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
     </row>
